--- a/bandwidth_test/MeasureTItanTeslaBandWidth.xlsx
+++ b/bandwidth_test/MeasureTItanTeslaBandWidth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BandWidth" sheetId="1" r:id="rId1"/>
@@ -622,13 +622,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-982579360"/>
-        <c:axId val="-942254848"/>
+        <c:axId val="683730672"/>
+        <c:axId val="683733792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-982579360"/>
+        <c:axId val="683730672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="33.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -759,12 +761,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-942254848"/>
+        <c:crossAx val="683733792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-942254848"/>
+        <c:axId val="683733792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +893,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982579360"/>
+        <c:crossAx val="683730672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1493,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-944327504"/>
-        <c:axId val="-944324384"/>
+        <c:axId val="602558528"/>
+        <c:axId val="602561648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-944327504"/>
+        <c:axId val="602558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,6 +1606,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1637,12 +1640,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-944324384"/>
+        <c:crossAx val="602561648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-944324384"/>
+        <c:axId val="602561648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1785,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-944327504"/>
+        <c:crossAx val="602558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2130,13 +2133,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-944242080"/>
-        <c:axId val="-944239376"/>
+        <c:axId val="683938160"/>
+        <c:axId val="683941280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-944242080"/>
+        <c:axId val="683938160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="33.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2257,7 +2262,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2269,12 +2274,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-944239376"/>
+        <c:crossAx val="683941280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-944239376"/>
+        <c:axId val="683941280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2394,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2401,7 +2406,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-944242080"/>
+        <c:crossAx val="683938160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4478,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
